--- a/data/pca/factorExposure/factorExposure_2018-04-04.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-04-04.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01339085628577372</v>
+        <v>0.01437441428109541</v>
       </c>
       <c r="C2">
-        <v>0.02917400235590922</v>
+        <v>0.00298329097211741</v>
       </c>
       <c r="D2">
-        <v>-0.02594139913824477</v>
+        <v>0.03817033486897083</v>
       </c>
       <c r="E2">
-        <v>0.002827038992288948</v>
+        <v>-0.01894015192590616</v>
       </c>
       <c r="F2">
-        <v>0.09413052118934258</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.00495204507402936</v>
+      </c>
+      <c r="G2">
+        <v>0.03043487178374847</v>
+      </c>
+      <c r="H2">
+        <v>0.04470781937454198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.08783165863960822</v>
+        <v>0.06638811827873965</v>
       </c>
       <c r="C3">
-        <v>0.04948752805365447</v>
+        <v>0.05173447275678286</v>
       </c>
       <c r="D3">
-        <v>-0.01103401957996569</v>
+        <v>0.0609082639073831</v>
       </c>
       <c r="E3">
-        <v>0.0445303834268438</v>
+        <v>-0.008540756295634675</v>
       </c>
       <c r="F3">
-        <v>0.3383279818393211</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>-0.05202682983708922</v>
+      </c>
+      <c r="G3">
+        <v>0.1380428784053056</v>
+      </c>
+      <c r="H3">
+        <v>0.1067282832451025</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.04539809355102564</v>
+        <v>0.03586609834972419</v>
       </c>
       <c r="C4">
-        <v>0.01788707855131493</v>
+        <v>0.03129936993288212</v>
       </c>
       <c r="D4">
-        <v>-0.03515696650386393</v>
+        <v>0.05879241358865416</v>
       </c>
       <c r="E4">
-        <v>-0.03452607074613465</v>
+        <v>0.01643707894802733</v>
       </c>
       <c r="F4">
-        <v>0.06099836694867514</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.03088067051018668</v>
+      </c>
+      <c r="G4">
+        <v>0.04213059006623547</v>
+      </c>
+      <c r="H4">
+        <v>0.05545963910608222</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.03299997108220019</v>
+        <v>0.02082494941748508</v>
       </c>
       <c r="C6">
-        <v>0.01526172223011455</v>
+        <v>0.03427328660349282</v>
       </c>
       <c r="D6">
-        <v>-0.03850115741618067</v>
+        <v>0.05543834432953178</v>
       </c>
       <c r="E6">
-        <v>-0.02387234277227183</v>
+        <v>0.0047324599988564</v>
       </c>
       <c r="F6">
-        <v>0.0115671487594064</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.02890394814540832</v>
+      </c>
+      <c r="G6">
+        <v>0.0151842632174844</v>
+      </c>
+      <c r="H6">
+        <v>0.06098333278346178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.03962902587706822</v>
+        <v>0.009081059080171861</v>
       </c>
       <c r="C7">
-        <v>-0.02622579581212549</v>
+        <v>0.01746451934604343</v>
       </c>
       <c r="D7">
-        <v>-0.03261474993604935</v>
+        <v>0.03432951826068051</v>
       </c>
       <c r="E7">
-        <v>-0.01684922059728696</v>
+        <v>0.04295555183136501</v>
       </c>
       <c r="F7">
-        <v>0.03670493603269219</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-0.005409112828012791</v>
+      </c>
+      <c r="G7">
+        <v>0.018858133140848</v>
+      </c>
+      <c r="H7">
+        <v>0.034997899284232</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.0161895531794061</v>
+        <v>0.0009955824104867735</v>
       </c>
       <c r="C8">
-        <v>0.001241495506611112</v>
+        <v>0.007544085770294006</v>
       </c>
       <c r="D8">
-        <v>-0.0436247898393697</v>
+        <v>0.009913850417143958</v>
       </c>
       <c r="E8">
-        <v>-0.02528827227029066</v>
+        <v>0.01008668845543637</v>
       </c>
       <c r="F8">
-        <v>0.0634915114730555</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.003955853067145927</v>
+      </c>
+      <c r="G8">
+        <v>0.03805775734715706</v>
+      </c>
+      <c r="H8">
+        <v>0.03216818268641494</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.0333512358385082</v>
+        <v>0.02499064007270553</v>
       </c>
       <c r="C9">
-        <v>0.01174020503258725</v>
+        <v>0.02500673842333989</v>
       </c>
       <c r="D9">
-        <v>-0.0329526200896692</v>
+        <v>0.04324647820910411</v>
       </c>
       <c r="E9">
-        <v>-0.01352395446655085</v>
+        <v>0.006155419707585674</v>
       </c>
       <c r="F9">
-        <v>0.07927130878355576</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.004842396930811901</v>
+      </c>
+      <c r="G9">
+        <v>0.04149626367129479</v>
+      </c>
+      <c r="H9">
+        <v>0.05239301736258637</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.04110307335254693</v>
+        <v>0.1343629489022542</v>
       </c>
       <c r="C10">
-        <v>0.004921023802551201</v>
+        <v>-0.07680262513532027</v>
       </c>
       <c r="D10">
-        <v>0.1475085437436913</v>
+        <v>-0.1240669186573814</v>
       </c>
       <c r="E10">
-        <v>0.05147301302000494</v>
+        <v>-0.0007070128179512772</v>
       </c>
       <c r="F10">
-        <v>0.05996771919657758</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>-0.04421578885175981</v>
+      </c>
+      <c r="G10">
+        <v>0.02344788608001803</v>
+      </c>
+      <c r="H10">
+        <v>-0.01083364711501716</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.03016698687769212</v>
+        <v>0.01639550466513555</v>
       </c>
       <c r="C11">
-        <v>0.02373727475674331</v>
+        <v>0.03510250666284894</v>
       </c>
       <c r="D11">
-        <v>-0.03685732959545955</v>
+        <v>0.03624065611053415</v>
       </c>
       <c r="E11">
-        <v>-0.01818983498417017</v>
+        <v>-0.001735627779919851</v>
       </c>
       <c r="F11">
-        <v>0.02665764584190427</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.005997497604694333</v>
+      </c>
+      <c r="G11">
+        <v>0.01813910708388024</v>
+      </c>
+      <c r="H11">
+        <v>0.05010712275606</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.04103375674217242</v>
+        <v>0.02023553021413192</v>
       </c>
       <c r="C12">
-        <v>0.02294880204959553</v>
+        <v>0.03134103479209804</v>
       </c>
       <c r="D12">
-        <v>-0.02966617033384513</v>
+        <v>0.03748795401171653</v>
       </c>
       <c r="E12">
-        <v>-0.02714349265440208</v>
+        <v>0.01131074792667445</v>
       </c>
       <c r="F12">
-        <v>0.001016419601547642</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.01081523960607979</v>
+      </c>
+      <c r="G12">
+        <v>0.004744561396512545</v>
+      </c>
+      <c r="H12">
+        <v>0.01938531156612902</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01134937127469694</v>
+        <v>0.01872262364466441</v>
       </c>
       <c r="C13">
-        <v>0.02225435335964489</v>
+        <v>0.002375732976980618</v>
       </c>
       <c r="D13">
-        <v>-0.01082380652178845</v>
+        <v>0.03125399888459823</v>
       </c>
       <c r="E13">
-        <v>-0.01018307423409364</v>
+        <v>-0.0132005049830519</v>
       </c>
       <c r="F13">
-        <v>0.07520713125538707</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.00502439733974879</v>
+      </c>
+      <c r="G13">
+        <v>0.05425681186419745</v>
+      </c>
+      <c r="H13">
+        <v>0.06936421264826637</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.02406279167391961</v>
+        <v>0.01001016124192939</v>
       </c>
       <c r="C14">
-        <v>-0.0009761550959857966</v>
+        <v>0.01046141527290262</v>
       </c>
       <c r="D14">
-        <v>-0.01910704184275714</v>
+        <v>0.01961662179969374</v>
       </c>
       <c r="E14">
-        <v>-0.01652982715786678</v>
+        <v>0.01384743827057006</v>
       </c>
       <c r="F14">
-        <v>0.0473717985840153</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.001049429398929836</v>
+      </c>
+      <c r="G14">
+        <v>0.03716764400302866</v>
+      </c>
+      <c r="H14">
+        <v>0.009437571557555594</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.03161541812089515</v>
+        <v>0.01803859622660224</v>
       </c>
       <c r="C16">
-        <v>0.0237097300672893</v>
+        <v>0.03098325576222723</v>
       </c>
       <c r="D16">
-        <v>-0.04057297319795661</v>
+        <v>0.03079334203291329</v>
       </c>
       <c r="E16">
-        <v>-0.02055011452869378</v>
+        <v>0.002560294790355282</v>
       </c>
       <c r="F16">
-        <v>0.02792995839433156</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.008304297831037567</v>
+      </c>
+      <c r="G16">
+        <v>0.01792193621739283</v>
+      </c>
+      <c r="H16">
+        <v>0.03604580813277615</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.03631355813618446</v>
+        <v>0.01972505367148968</v>
       </c>
       <c r="C19">
-        <v>0.02055568069226401</v>
+        <v>0.02348705338784783</v>
       </c>
       <c r="D19">
-        <v>-0.04619181035109263</v>
+        <v>0.04029241848364438</v>
       </c>
       <c r="E19">
-        <v>-0.03614595499211328</v>
+        <v>0.01036962737904188</v>
       </c>
       <c r="F19">
-        <v>0.07722084411060054</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>0.009229937850081686</v>
+      </c>
+      <c r="G19">
+        <v>0.05486107474103929</v>
+      </c>
+      <c r="H19">
+        <v>0.05339771036661835</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.003306392539649042</v>
+        <v>0.005191880266166459</v>
       </c>
       <c r="C20">
-        <v>-0.008047618182265064</v>
+        <v>0.007295404363722001</v>
       </c>
       <c r="D20">
-        <v>-0.005929297543390121</v>
+        <v>0.02251918146519331</v>
       </c>
       <c r="E20">
-        <v>-0.01168890300585518</v>
+        <v>0.004419162765446772</v>
       </c>
       <c r="F20">
-        <v>0.05452232192938587</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-0.001668632963395983</v>
+      </c>
+      <c r="G20">
+        <v>0.04750679616472564</v>
+      </c>
+      <c r="H20">
+        <v>0.02593474428245793</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.0204295754676757</v>
+        <v>0.01265828557230972</v>
       </c>
       <c r="C21">
-        <v>-0.01414137546609581</v>
+        <v>0.00596791920861403</v>
       </c>
       <c r="D21">
-        <v>-0.03447133872616854</v>
+        <v>0.02382290619203669</v>
       </c>
       <c r="E21">
-        <v>-0.003769675359502784</v>
+        <v>0.01660043009236403</v>
       </c>
       <c r="F21">
-        <v>0.02652347732289132</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-0.009715978532339605</v>
+      </c>
+      <c r="G21">
+        <v>0.03771030594139052</v>
+      </c>
+      <c r="H21">
+        <v>0.05072057420618941</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1295,302 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.02902672550216844</v>
+        <v>0.01305202123678341</v>
       </c>
       <c r="C24">
-        <v>0.02138560698864012</v>
+        <v>0.02690069185289653</v>
       </c>
       <c r="D24">
-        <v>-0.0213725352803647</v>
+        <v>0.03445455446177371</v>
       </c>
       <c r="E24">
-        <v>-0.01766134173363837</v>
+        <v>0.0008861361243148279</v>
       </c>
       <c r="F24">
-        <v>0.03094158401520346</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.005771741756547729</v>
+      </c>
+      <c r="G24">
+        <v>0.01219510810970837</v>
+      </c>
+      <c r="H24">
+        <v>0.04381640977458647</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.03252576978450133</v>
+        <v>0.02677325571715737</v>
       </c>
       <c r="C25">
-        <v>0.01971207458440586</v>
+        <v>0.02807537163939138</v>
       </c>
       <c r="D25">
-        <v>-0.03333775814088042</v>
+        <v>0.03989937607108437</v>
       </c>
       <c r="E25">
-        <v>-0.01479531628621944</v>
+        <v>0.006552686736587247</v>
       </c>
       <c r="F25">
-        <v>0.0341571679655783</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.01387431848107843</v>
+      </c>
+      <c r="G25">
+        <v>0.01558373456576423</v>
+      </c>
+      <c r="H25">
+        <v>0.04418424864034027</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.01440070920759548</v>
+        <v>0.009722868708488978</v>
       </c>
       <c r="C26">
-        <v>0.009007619353690433</v>
+        <v>-0.01076139868567647</v>
       </c>
       <c r="D26">
-        <v>-0.02146003627339141</v>
+        <v>0.02020610056545221</v>
       </c>
       <c r="E26">
-        <v>0.004690832617225855</v>
+        <v>0.001227857313423651</v>
       </c>
       <c r="F26">
-        <v>0.05395147248818017</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.006632331087532093</v>
+      </c>
+      <c r="G26">
+        <v>0.02417454633948231</v>
+      </c>
+      <c r="H26">
+        <v>0.01759493313975217</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>0.03676766828403975</v>
+        <v>0.01354092733672628</v>
       </c>
       <c r="C27">
-        <v>0.01796219475509412</v>
+        <v>0.01092239008668272</v>
       </c>
       <c r="D27">
-        <v>-0.001897968296724911</v>
+        <v>0.008037181918436904</v>
       </c>
       <c r="E27">
-        <v>-0.02642337134784117</v>
+        <v>0.006948306148525239</v>
       </c>
       <c r="F27">
-        <v>0.01320131273196161</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>0.002217658506002015</v>
+      </c>
+      <c r="G27">
+        <v>0.007752718994390981</v>
+      </c>
+      <c r="H27">
+        <v>-0.004333919856738572</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.07249174844754896</v>
+        <v>0.1866541035945376</v>
       </c>
       <c r="C28">
-        <v>0.009815264400629367</v>
+        <v>-0.1097615923476644</v>
       </c>
       <c r="D28">
-        <v>0.2114050524425881</v>
+        <v>-0.1547027035931918</v>
       </c>
       <c r="E28">
-        <v>0.08323343410481163</v>
+        <v>0.01211881995480184</v>
       </c>
       <c r="F28">
-        <v>0.05791315279862902</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>-0.04082913774243514</v>
+      </c>
+      <c r="G28">
+        <v>0.01154358678362958</v>
+      </c>
+      <c r="H28">
+        <v>-0.01482249946190772</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.02577860572295297</v>
+        <v>0.0158893352212618</v>
       </c>
       <c r="C29">
-        <v>7.321778028675315e-05</v>
+        <v>0.01041201930861244</v>
       </c>
       <c r="D29">
-        <v>-0.02212514401294526</v>
+        <v>0.0175182604368725</v>
       </c>
       <c r="E29">
-        <v>-0.01829486462703535</v>
+        <v>0.01322630895347228</v>
       </c>
       <c r="F29">
-        <v>0.04402083066696487</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-0.001482084007994184</v>
+      </c>
+      <c r="G29">
+        <v>0.03615313855854532</v>
+      </c>
+      <c r="H29">
+        <v>0.004852350699364239</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.04797047632800147</v>
+        <v>0.03255979270937385</v>
       </c>
       <c r="C30">
-        <v>0.07558823755730983</v>
+        <v>0.04785055774386988</v>
       </c>
       <c r="D30">
-        <v>-0.05902851250299838</v>
+        <v>0.08294951351581845</v>
       </c>
       <c r="E30">
-        <v>-0.0405558203740656</v>
+        <v>-0.03222221161932991</v>
       </c>
       <c r="F30">
-        <v>0.08752463155634398</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.02736678029552549</v>
+      </c>
+      <c r="G30">
+        <v>0.0590333784633137</v>
+      </c>
+      <c r="H30">
+        <v>0.07187013616172536</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.05095754452691126</v>
+        <v>0.04336907621632011</v>
       </c>
       <c r="C31">
-        <v>0.03688571191718922</v>
+        <v>0.02354181160211936</v>
       </c>
       <c r="D31">
-        <v>-0.01936641444183692</v>
+        <v>0.02258405429249179</v>
       </c>
       <c r="E31">
-        <v>-0.01832483117720569</v>
+        <v>-0.001294701939226447</v>
       </c>
       <c r="F31">
-        <v>0.03030385807792833</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.003807882837440402</v>
+      </c>
+      <c r="G31">
+        <v>0.01600463331084035</v>
+      </c>
+      <c r="H31">
+        <v>0.003963820202403939</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.02486288548059505</v>
+        <v>0.008450729508856178</v>
       </c>
       <c r="C32">
-        <v>-0.01327739663922195</v>
+        <v>0.01822213951623671</v>
       </c>
       <c r="D32">
-        <v>-0.05409732691236735</v>
+        <v>0.005073176680737759</v>
       </c>
       <c r="E32">
-        <v>-0.03760154258276479</v>
+        <v>0.03062426501391174</v>
       </c>
       <c r="F32">
-        <v>0.04406788315271752</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>0.0266346851348188</v>
+      </c>
+      <c r="G32">
+        <v>0.04332863416072116</v>
+      </c>
+      <c r="H32">
+        <v>0.04878550053171585</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.03160305154438504</v>
+        <v>0.02059426045923529</v>
       </c>
       <c r="C33">
-        <v>0.04445725949383436</v>
+        <v>0.02584384358711923</v>
       </c>
       <c r="D33">
-        <v>-0.0517864457665044</v>
+        <v>0.04292942481686805</v>
       </c>
       <c r="E33">
-        <v>-0.002686338527594193</v>
+        <v>-0.01973420954182326</v>
       </c>
       <c r="F33">
-        <v>0.06207748525396829</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-0.01285047849189147</v>
+      </c>
+      <c r="G33">
+        <v>0.03621017138717298</v>
+      </c>
+      <c r="H33">
+        <v>0.04915462499590385</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.03627842208530865</v>
+        <v>0.02508793695768282</v>
       </c>
       <c r="C34">
-        <v>0.01674133755117522</v>
+        <v>0.04158049060507082</v>
       </c>
       <c r="D34">
-        <v>-0.04252504514352809</v>
+        <v>0.03065632345978069</v>
       </c>
       <c r="E34">
-        <v>-0.02858155753188289</v>
+        <v>0.01367039179993677</v>
       </c>
       <c r="F34">
-        <v>0.02624726335987031</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.01545562267712383</v>
+      </c>
+      <c r="G34">
+        <v>0.007934547923509444</v>
+      </c>
+      <c r="H34">
+        <v>0.03521501507487549</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01814491724024727</v>
+        <v>0.01527928432064396</v>
       </c>
       <c r="C36">
-        <v>0.0005005144694621567</v>
+        <v>-0.001928968237495422</v>
       </c>
       <c r="D36">
-        <v>-0.01287662841075909</v>
+        <v>0.01023345524048887</v>
       </c>
       <c r="E36">
-        <v>-0.009696332644984642</v>
+        <v>0.007978156498154429</v>
       </c>
       <c r="F36">
-        <v>0.02832476110191668</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-0.004306014013155127</v>
+      </c>
+      <c r="G36">
+        <v>0.01572183034311456</v>
+      </c>
+      <c r="H36">
+        <v>0.01501011645246534</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.008440453310924198</v>
+        <v>0.02388714530900139</v>
       </c>
       <c r="C38">
-        <v>0.004973908259821968</v>
+        <v>0.02071506564392966</v>
       </c>
       <c r="D38">
-        <v>-0.002369153132331114</v>
+        <v>0.005648110525818394</v>
       </c>
       <c r="E38">
-        <v>0.01714604118028066</v>
+        <v>0.00083412630476799</v>
       </c>
       <c r="F38">
-        <v>0.04575796812120461</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.001957059374561152</v>
+      </c>
+      <c r="G38">
+        <v>0.02184193671655362</v>
+      </c>
+      <c r="H38">
+        <v>0.03188480909779896</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.02949856756646077</v>
+        <v>0.006832754994904175</v>
       </c>
       <c r="C39">
-        <v>0.02307557511361888</v>
+        <v>0.05305223238775987</v>
       </c>
       <c r="D39">
-        <v>-0.05793587402443408</v>
+        <v>0.07095514262393118</v>
       </c>
       <c r="E39">
-        <v>-0.02174807469344023</v>
+        <v>-0.006723847039147022</v>
       </c>
       <c r="F39">
-        <v>0.04620115361591336</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.009246475669601862</v>
+      </c>
+      <c r="G39">
+        <v>0.02866502680693103</v>
+      </c>
+      <c r="H39">
+        <v>0.0790958660620974</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01818549576897802</v>
+        <v>0.02606976641880603</v>
       </c>
       <c r="C40">
-        <v>0.0510499078808153</v>
+        <v>0.01826018566842551</v>
       </c>
       <c r="D40">
-        <v>-0.02332180552769007</v>
+        <v>0.02933042601594714</v>
       </c>
       <c r="E40">
-        <v>-0.0292401273332358</v>
+        <v>-0.02392180514229268</v>
       </c>
       <c r="F40">
-        <v>0.04026353119091092</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.02701348041879166</v>
+      </c>
+      <c r="G40">
+        <v>0.01577430230143864</v>
+      </c>
+      <c r="H40">
+        <v>0.05627227432918962</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.005563543161256122</v>
+        <v>0.01253078394189368</v>
       </c>
       <c r="C41">
-        <v>-0.00224544015887364</v>
+        <v>-0.007819402752951156</v>
       </c>
       <c r="D41">
-        <v>-0.005101099172097552</v>
+        <v>-0.006440642419793849</v>
       </c>
       <c r="E41">
-        <v>0.01223255671605769</v>
+        <v>0.004841076022605383</v>
       </c>
       <c r="F41">
-        <v>0.00370889011647231</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>-0.007157363570787041</v>
+      </c>
+      <c r="G41">
+        <v>-0.003794777210057965</v>
+      </c>
+      <c r="H41">
+        <v>-0.004915158184830633</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.2233877029419735</v>
+        <v>0.1040456554143553</v>
       </c>
       <c r="C42">
-        <v>0.2273882043334189</v>
+        <v>0.05610798627585732</v>
       </c>
       <c r="D42">
-        <v>-0.2350717030763799</v>
+        <v>0.2406364613199828</v>
       </c>
       <c r="E42">
-        <v>0.8543415487790375</v>
+        <v>-0.2270252709708928</v>
       </c>
       <c r="F42">
-        <v>-0.2591688978473161</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>-0.8004445103327432</v>
+      </c>
+      <c r="G42">
+        <v>-0.4633184173891046</v>
+      </c>
+      <c r="H42">
+        <v>0.0354353836653814</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.005971414710637679</v>
+        <v>0.01383234206367879</v>
       </c>
       <c r="C43">
-        <v>0.003621368868106873</v>
+        <v>-0.00738948998844848</v>
       </c>
       <c r="D43">
-        <v>-0.0104695554276417</v>
+        <v>-0.004850442976992582</v>
       </c>
       <c r="E43">
-        <v>0.004719534829275552</v>
+        <v>0.0002538151285663313</v>
       </c>
       <c r="F43">
-        <v>0.02394225534821883</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>-0.007973076809618684</v>
+      </c>
+      <c r="G43">
+        <v>-0.0009345802876129674</v>
+      </c>
+      <c r="H43">
+        <v>0.004215968816911142</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.02548397322036263</v>
+        <v>0.01188505470637725</v>
       </c>
       <c r="C44">
-        <v>-0.002414703266580758</v>
+        <v>0.02591843923115743</v>
       </c>
       <c r="D44">
-        <v>-0.03246265673593408</v>
+        <v>0.03243455531691866</v>
       </c>
       <c r="E44">
-        <v>-0.001790363758319851</v>
+        <v>0.01385191693354694</v>
       </c>
       <c r="F44">
-        <v>0.09292418640180324</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>-0.01460773939310424</v>
+      </c>
+      <c r="G44">
+        <v>0.03457372396636524</v>
+      </c>
+      <c r="H44">
+        <v>0.05783723943747976</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02057075870961574</v>
+        <v>0.005677558170372593</v>
       </c>
       <c r="C46">
-        <v>0.01112984006807414</v>
+        <v>0.003026610202782077</v>
       </c>
       <c r="D46">
-        <v>-0.05656574665954413</v>
+        <v>0.01796567741851119</v>
       </c>
       <c r="E46">
-        <v>-0.02210884809452819</v>
+        <v>0.001333626826155757</v>
       </c>
       <c r="F46">
-        <v>0.05956346431390876</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>-0.006944687514941753</v>
+      </c>
+      <c r="G46">
+        <v>0.03748279082048116</v>
+      </c>
+      <c r="H46">
+        <v>0.008079422466746458</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.07852534591588402</v>
+        <v>0.05886891336247978</v>
       </c>
       <c r="C47">
-        <v>0.05202466701005699</v>
+        <v>0.05280096674548217</v>
       </c>
       <c r="D47">
-        <v>-0.01172730668279461</v>
+        <v>0.04030106136932356</v>
       </c>
       <c r="E47">
-        <v>-0.02698745190021046</v>
+        <v>0.005864629597507267</v>
       </c>
       <c r="F47">
-        <v>0.004006415079338861</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.006672732406930808</v>
+      </c>
+      <c r="G47">
+        <v>-0.002812454174258358</v>
+      </c>
+      <c r="H47">
+        <v>-0.03197874646058035</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01747748839054805</v>
+        <v>0.01547474162447674</v>
       </c>
       <c r="C48">
-        <v>0.01109366705942498</v>
+        <v>0.01169008971196265</v>
       </c>
       <c r="D48">
-        <v>-0.02112827974786756</v>
+        <v>0.01128520068319996</v>
       </c>
       <c r="E48">
-        <v>-0.009112988789302969</v>
+        <v>0.001094917174812995</v>
       </c>
       <c r="F48">
-        <v>0.03445151844847444</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.0005689049255262903</v>
+      </c>
+      <c r="G48">
+        <v>0.01738284180268465</v>
+      </c>
+      <c r="H48">
+        <v>0.01890461818192445</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.08303818769843123</v>
+        <v>0.06268904343849102</v>
       </c>
       <c r="C50">
-        <v>0.03554027207752711</v>
+        <v>0.0494451128194426</v>
       </c>
       <c r="D50">
-        <v>-0.03390770820305237</v>
+        <v>0.03880716456313243</v>
       </c>
       <c r="E50">
-        <v>-0.01967862033912237</v>
+        <v>0.01699074117176283</v>
       </c>
       <c r="F50">
-        <v>0.01637896533787486</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.0006536499446912836</v>
+      </c>
+      <c r="G50">
+        <v>0.005714066275916168</v>
+      </c>
+      <c r="H50">
+        <v>-0.01766637918281366</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.02139806510199952</v>
+        <v>0.01475721300266042</v>
       </c>
       <c r="C51">
-        <v>0.006003922512131668</v>
+        <v>0.005277003067128332</v>
       </c>
       <c r="D51">
-        <v>0.001669303432745431</v>
+        <v>0.01224363582149132</v>
       </c>
       <c r="E51">
-        <v>-0.003351385205481554</v>
+        <v>0.008277013728154058</v>
       </c>
       <c r="F51">
-        <v>0.08419889113628899</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.006025100422784993</v>
+      </c>
+      <c r="G51">
+        <v>0.03040138961468244</v>
+      </c>
+      <c r="H51">
+        <v>0.04250853595398623</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.0855069014914373</v>
+        <v>0.07452339783868045</v>
       </c>
       <c r="C53">
-        <v>0.05440012944471921</v>
+        <v>0.07792873452127118</v>
       </c>
       <c r="D53">
-        <v>-0.03900280637489077</v>
+        <v>0.06605798516290073</v>
       </c>
       <c r="E53">
-        <v>-0.0389722150679969</v>
+        <v>0.01012521382139072</v>
       </c>
       <c r="F53">
-        <v>-0.03356566246377235</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0.02680008253506518</v>
+      </c>
+      <c r="G53">
+        <v>-0.02242773779297267</v>
+      </c>
+      <c r="H53">
+        <v>-0.02857773225575749</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.02543078500692635</v>
+        <v>0.02340582467263486</v>
       </c>
       <c r="C54">
-        <v>0.00251227917173121</v>
+        <v>0.003949053998792596</v>
       </c>
       <c r="D54">
-        <v>0.002166932875158321</v>
+        <v>-0.005842434137440814</v>
       </c>
       <c r="E54">
-        <v>-0.009841206038121678</v>
+        <v>0.006395392450394962</v>
       </c>
       <c r="F54">
-        <v>0.02804080275632454</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>-0.0116016143043187</v>
+      </c>
+      <c r="G54">
+        <v>0.03606660647565302</v>
+      </c>
+      <c r="H54">
+        <v>-0.002444135763811815</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.08322683019765763</v>
+        <v>0.05650435046020176</v>
       </c>
       <c r="C55">
-        <v>0.04852577037158661</v>
+        <v>0.0692298685685203</v>
       </c>
       <c r="D55">
-        <v>-0.04250264831716665</v>
+        <v>0.06021562549465221</v>
       </c>
       <c r="E55">
-        <v>-0.0318388253780795</v>
+        <v>0.01046515541269123</v>
       </c>
       <c r="F55">
-        <v>-0.03743983430345325</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.01351667959007376</v>
+      </c>
+      <c r="G55">
+        <v>-0.006552237397453698</v>
+      </c>
+      <c r="H55">
+        <v>-0.03836127210764752</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1208996979068342</v>
+        <v>0.09821752712608484</v>
       </c>
       <c r="C56">
-        <v>0.082491279063309</v>
+        <v>0.1035628627233281</v>
       </c>
       <c r="D56">
-        <v>-0.02270315372360189</v>
+        <v>0.0795272654327407</v>
       </c>
       <c r="E56">
-        <v>-0.08309830327552484</v>
+        <v>0.01109251055661531</v>
       </c>
       <c r="F56">
-        <v>-0.06623662231932455</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.05394025544190894</v>
+      </c>
+      <c r="G56">
+        <v>-0.04257182905649944</v>
+      </c>
+      <c r="H56">
+        <v>-0.06908332362265385</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.0368937043904881</v>
+        <v>0.02597420507298047</v>
       </c>
       <c r="C57">
-        <v>0.03098167583860164</v>
+        <v>0.00736018571495747</v>
       </c>
       <c r="D57">
-        <v>-0.02237333600482485</v>
+        <v>0.03907693868914752</v>
       </c>
       <c r="E57">
-        <v>0.01355375336964955</v>
+        <v>-0.008398285520723055</v>
       </c>
       <c r="F57">
-        <v>0.05352513184529073</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>-0.01593708385341998</v>
+      </c>
+      <c r="G57">
+        <v>0.06370935111358905</v>
+      </c>
+      <c r="H57">
+        <v>0.05172396802987971</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1447273251476885</v>
+        <v>0.09698295256902534</v>
       </c>
       <c r="C58">
-        <v>0.2199818109043755</v>
+        <v>0.1294024731025045</v>
       </c>
       <c r="D58">
-        <v>-0.2199937824298415</v>
+        <v>0.1378019025164739</v>
       </c>
       <c r="E58">
-        <v>-0.01953950628648964</v>
+        <v>-0.2898202489206258</v>
       </c>
       <c r="F58">
-        <v>0.5307146272232661</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>-0.315756966259389</v>
+      </c>
+      <c r="G58">
+        <v>0.7751896815885967</v>
+      </c>
+      <c r="H58">
+        <v>-0.2910705952547724</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.05307820193702623</v>
+        <v>0.2030536999980243</v>
       </c>
       <c r="C59">
-        <v>0.03074742680618633</v>
+        <v>-0.09704467574942731</v>
       </c>
       <c r="D59">
-        <v>0.1850888522066525</v>
+        <v>-0.1532388536213305</v>
       </c>
       <c r="E59">
-        <v>0.03598068117874387</v>
+        <v>-0.007766975569791274</v>
       </c>
       <c r="F59">
-        <v>0.08630720572875294</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>-0.003815212322909882</v>
+      </c>
+      <c r="G59">
+        <v>0.01442359558045564</v>
+      </c>
+      <c r="H59">
+        <v>0.01693318087312708</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1288644488354924</v>
+        <v>0.2152313914395261</v>
       </c>
       <c r="C60">
-        <v>0.1210705442770032</v>
+        <v>0.04994374660528032</v>
       </c>
       <c r="D60">
-        <v>0.00127710842763742</v>
+        <v>0.03361502555541275</v>
       </c>
       <c r="E60">
-        <v>0.01076542540254693</v>
+        <v>-0.0551884727646583</v>
       </c>
       <c r="F60">
-        <v>0.1672862407870058</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>0.08309531199538424</v>
+      </c>
+      <c r="G60">
+        <v>0.02611132794741116</v>
+      </c>
+      <c r="H60">
+        <v>0.3916059215554756</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.02104953577028383</v>
+        <v>0.01355876199718265</v>
       </c>
       <c r="C61">
-        <v>0.01126345184698389</v>
+        <v>0.03978301825047591</v>
       </c>
       <c r="D61">
-        <v>-0.04325223583822814</v>
+        <v>0.04542919658767863</v>
       </c>
       <c r="E61">
-        <v>-0.01154961695744483</v>
+        <v>0.003543432875869033</v>
       </c>
       <c r="F61">
-        <v>0.01715948150972559</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>0.0135718745283011</v>
+      </c>
+      <c r="G61">
+        <v>0.02173950122806647</v>
+      </c>
+      <c r="H61">
+        <v>0.05643278130282611</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01296684968968095</v>
+        <v>0.006616740653147712</v>
       </c>
       <c r="C63">
-        <v>0.002767351494018561</v>
+        <v>0.0106678400593331</v>
       </c>
       <c r="D63">
-        <v>-0.02341884975380731</v>
+        <v>0.02163817888730613</v>
       </c>
       <c r="E63">
-        <v>0.004411334128703017</v>
+        <v>0.008910451832862772</v>
       </c>
       <c r="F63">
-        <v>0.006177284617118709</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.0004734863112787051</v>
+      </c>
+      <c r="G63">
+        <v>0.01335639876830821</v>
+      </c>
+      <c r="H63">
+        <v>0.01388430769512779</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.03676262218563755</v>
+        <v>0.0366176859211944</v>
       </c>
       <c r="C64">
-        <v>0.005152513493984609</v>
+        <v>0.02935977346844744</v>
       </c>
       <c r="D64">
-        <v>-0.03111069750803594</v>
+        <v>0.03170916863332416</v>
       </c>
       <c r="E64">
-        <v>-0.02036795842926778</v>
+        <v>0.01561540929420721</v>
       </c>
       <c r="F64">
-        <v>0.01546787896646524</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.005629031518425635</v>
+      </c>
+      <c r="G64">
+        <v>-0.01203792660095204</v>
+      </c>
+      <c r="H64">
+        <v>0.04710676936044332</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.03684544667710922</v>
+        <v>0.04202835358584481</v>
       </c>
       <c r="C65">
-        <v>0.01702441617268606</v>
+        <v>0.04529222533907946</v>
       </c>
       <c r="D65">
-        <v>-0.038771482109627</v>
+        <v>0.06513296159261679</v>
       </c>
       <c r="E65">
-        <v>-0.02651788836390593</v>
+        <v>0.007222831319843974</v>
       </c>
       <c r="F65">
-        <v>0.004547668220293593</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.04679507979675984</v>
+      </c>
+      <c r="G65">
+        <v>0.0002392003832766634</v>
+      </c>
+      <c r="H65">
+        <v>0.07541178656160302</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.03282249562229508</v>
+        <v>0.01458632203133016</v>
       </c>
       <c r="C66">
-        <v>0.03288986358640669</v>
+        <v>0.07176499040912868</v>
       </c>
       <c r="D66">
-        <v>-0.06298351540287282</v>
+        <v>0.08695441380812031</v>
       </c>
       <c r="E66">
-        <v>-0.0447679701601038</v>
+        <v>-0.007819352538158516</v>
       </c>
       <c r="F66">
-        <v>0.03136126585951289</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>0.03250597621038707</v>
+      </c>
+      <c r="G66">
+        <v>0.03031475037842727</v>
+      </c>
+      <c r="H66">
+        <v>0.08421499116980133</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.01898280006398967</v>
+        <v>0.04576028365285348</v>
       </c>
       <c r="C67">
-        <v>0.01648842692461669</v>
+        <v>0.02582159014332088</v>
       </c>
       <c r="D67">
-        <v>0.008730428901538793</v>
+        <v>0.01040175147064129</v>
       </c>
       <c r="E67">
-        <v>0.007524744906225954</v>
+        <v>-0.001134735216403465</v>
       </c>
       <c r="F67">
-        <v>0.02755024185370559</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>0.01505868117798482</v>
+      </c>
+      <c r="G67">
+        <v>0.01496115609184751</v>
+      </c>
+      <c r="H67">
+        <v>0.03026474043249303</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.06730339700249621</v>
+        <v>0.201255059181374</v>
       </c>
       <c r="C68">
-        <v>0.02793129919245574</v>
+        <v>-0.132288403572475</v>
       </c>
       <c r="D68">
-        <v>0.2104404139252082</v>
+        <v>-0.1625660996571708</v>
       </c>
       <c r="E68">
-        <v>0.05171890914945751</v>
+        <v>-0.00854370727649262</v>
       </c>
       <c r="F68">
-        <v>0.0771934539108509</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>-0.0499994836523454</v>
+      </c>
+      <c r="G68">
+        <v>0.02208708847790561</v>
+      </c>
+      <c r="H68">
+        <v>-0.04626298605849793</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.05565592375553487</v>
+        <v>0.0560900045226215</v>
       </c>
       <c r="C69">
-        <v>0.03924190749476422</v>
+        <v>0.05051188546078499</v>
       </c>
       <c r="D69">
-        <v>-0.01603580858343357</v>
+        <v>0.03191136569455429</v>
       </c>
       <c r="E69">
-        <v>-0.03566403498934508</v>
+        <v>0.005273948594396004</v>
       </c>
       <c r="F69">
-        <v>0.008901622255262408</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>0.02634447342711396</v>
+      </c>
+      <c r="G69">
+        <v>-0.00492956297641104</v>
+      </c>
+      <c r="H69">
+        <v>0.00684146107995581</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.07473756885550392</v>
+        <v>0.1807598316731292</v>
       </c>
       <c r="C71">
-        <v>0.0371777535529758</v>
+        <v>-0.09954201781320422</v>
       </c>
       <c r="D71">
-        <v>0.2130348124920803</v>
+        <v>-0.1343219863060019</v>
       </c>
       <c r="E71">
-        <v>0.0867198849021508</v>
+        <v>-0.01250355800955292</v>
       </c>
       <c r="F71">
-        <v>0.08173116613887652</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>-0.06138506437511052</v>
+      </c>
+      <c r="G71">
+        <v>0.02434801580309967</v>
+      </c>
+      <c r="H71">
+        <v>-0.02746092781794821</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.09634279141419952</v>
+        <v>0.05993798324171929</v>
       </c>
       <c r="C72">
-        <v>0.08418263460809619</v>
+        <v>0.08500811591868165</v>
       </c>
       <c r="D72">
-        <v>-0.06609505139294776</v>
+        <v>0.06697074878009056</v>
       </c>
       <c r="E72">
-        <v>-0.09519773618112173</v>
+        <v>-0.01464782528929834</v>
       </c>
       <c r="F72">
-        <v>0.0688095992659679</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>0.06927448499649243</v>
+      </c>
+      <c r="G72">
+        <v>0.03440646012757057</v>
+      </c>
+      <c r="H72">
+        <v>0.09864268588262347</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.1650567841189599</v>
+        <v>0.2826220059625424</v>
       </c>
       <c r="C73">
-        <v>0.1932893895450126</v>
+        <v>0.09710080561472975</v>
       </c>
       <c r="D73">
-        <v>0.02280009019967681</v>
+        <v>0.08602040170123787</v>
       </c>
       <c r="E73">
-        <v>0.05258115149794266</v>
+        <v>-0.09710213987819614</v>
       </c>
       <c r="F73">
-        <v>0.2022589666919782</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>0.09408137516419628</v>
+      </c>
+      <c r="G73">
+        <v>0.02651332005279791</v>
+      </c>
+      <c r="H73">
+        <v>0.4890709945367481</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1124994561458798</v>
+        <v>0.09662339152184314</v>
       </c>
       <c r="C74">
-        <v>0.07512362168193631</v>
+        <v>0.105365059081717</v>
       </c>
       <c r="D74">
-        <v>-0.02197403082356583</v>
+        <v>0.08254288897417747</v>
       </c>
       <c r="E74">
-        <v>-0.04573248154238837</v>
+        <v>0.01204101260586129</v>
       </c>
       <c r="F74">
-        <v>-0.07831994422473711</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0.03760213632999598</v>
+      </c>
+      <c r="G74">
+        <v>-0.0317180650205726</v>
+      </c>
+      <c r="H74">
+        <v>-0.04065722402122119</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.1951368759966525</v>
+        <v>0.2014753464799149</v>
       </c>
       <c r="C75">
-        <v>0.1484430178081619</v>
+        <v>0.1835201236244044</v>
       </c>
       <c r="D75">
-        <v>-0.01154880725276427</v>
+        <v>0.1294852383615531</v>
       </c>
       <c r="E75">
-        <v>-0.1519641921761674</v>
+        <v>0.008528359128111998</v>
       </c>
       <c r="F75">
-        <v>-0.126938740870718</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>0.1053963829917937</v>
+      </c>
+      <c r="G75">
+        <v>-0.07726666128313482</v>
+      </c>
+      <c r="H75">
+        <v>-0.1489207436141323</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.2442901466647874</v>
+        <v>0.1568722283736791</v>
       </c>
       <c r="C76">
-        <v>0.1383932728349979</v>
+        <v>0.1667577649363439</v>
       </c>
       <c r="D76">
-        <v>-0.02555824339208694</v>
+        <v>0.1201859381664594</v>
       </c>
       <c r="E76">
-        <v>-0.1803256759962037</v>
+        <v>0.04677249007536959</v>
       </c>
       <c r="F76">
-        <v>-0.2035404725085795</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.0911455937721293</v>
+      </c>
+      <c r="G76">
+        <v>-0.06685142400121925</v>
+      </c>
+      <c r="H76">
+        <v>-0.1306135943143266</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.08789198500663084</v>
+        <v>0.04948111505858357</v>
       </c>
       <c r="C77">
-        <v>0.07229148325643529</v>
+        <v>0.05471623527333148</v>
       </c>
       <c r="D77">
-        <v>-0.09561164041937566</v>
+        <v>0.07200792849458178</v>
       </c>
       <c r="E77">
-        <v>0.05017311312173309</v>
+        <v>-0.01907969310561908</v>
       </c>
       <c r="F77">
-        <v>0.1337647373607318</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>-0.04235540810130565</v>
+      </c>
+      <c r="G77">
+        <v>0.06000848678216408</v>
+      </c>
+      <c r="H77">
+        <v>0.01325786914146971</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.06082206113801626</v>
+        <v>0.02701412489789208</v>
       </c>
       <c r="C78">
-        <v>0.0346580292613516</v>
+        <v>0.05308601929301467</v>
       </c>
       <c r="D78">
-        <v>-0.1141721742768958</v>
+        <v>0.06074736134276644</v>
       </c>
       <c r="E78">
-        <v>-0.03750143072435721</v>
+        <v>0.004783699022449155</v>
       </c>
       <c r="F78">
-        <v>0.08132624359798531</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.007283262690636611</v>
+      </c>
+      <c r="G78">
+        <v>0.05440500443601233</v>
+      </c>
+      <c r="H78">
+        <v>0.09232324703298368</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2751,68 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.6143155747546342</v>
+        <v>0.1105901843405827</v>
       </c>
       <c r="C80">
-        <v>-0.7677158197012348</v>
+        <v>0.07685474978026482</v>
       </c>
       <c r="D80">
-        <v>-0.07308525802829284</v>
+        <v>0.07604683315472942</v>
       </c>
       <c r="E80">
-        <v>0.04417143177158867</v>
+        <v>0.90868080697039</v>
       </c>
       <c r="F80">
-        <v>0.04322087392711749</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>-0.3022595418962226</v>
+      </c>
+      <c r="G80">
+        <v>0.1485922392751304</v>
+      </c>
+      <c r="H80">
+        <v>0.02925109755006999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1542135127211939</v>
+        <v>0.1304044558457908</v>
       </c>
       <c r="C81">
-        <v>0.1012177720712948</v>
+        <v>0.1138620401416791</v>
       </c>
       <c r="D81">
-        <v>-0.004316670504022939</v>
+        <v>0.08044547836030666</v>
       </c>
       <c r="E81">
-        <v>-0.1159162098273492</v>
+        <v>0.01714907405457903</v>
       </c>
       <c r="F81">
-        <v>-0.1132754536847419</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0.05915330723633011</v>
+      </c>
+      <c r="G81">
+        <v>-0.04714008253704414</v>
+      </c>
+      <c r="H81">
+        <v>-0.08573350359846346</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +2829,42 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.02959244683734987</v>
+        <v>0.02663954712391044</v>
       </c>
       <c r="C83">
-        <v>0.02682496881630289</v>
+        <v>0.0164371520464066</v>
       </c>
       <c r="D83">
-        <v>-0.02891127946391075</v>
+        <v>0.02044441269126742</v>
       </c>
       <c r="E83">
-        <v>0.0125704286799458</v>
+        <v>-0.00675246000220894</v>
       </c>
       <c r="F83">
-        <v>0.0573986346835284</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.01083323468314585</v>
+      </c>
+      <c r="G83">
+        <v>0.03816373910818843</v>
+      </c>
+      <c r="H83">
+        <v>0.04197403281135097</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.2182658954968673</v>
+        <v>0.1882450912258923</v>
       </c>
       <c r="C85">
-        <v>0.1518179846109746</v>
+        <v>0.1721103587513574</v>
       </c>
       <c r="D85">
-        <v>-0.02309276596184234</v>
+        <v>0.1385883720578119</v>
       </c>
       <c r="E85">
-        <v>-0.1410647450729828</v>
+        <v>0.007601907441418729</v>
       </c>
       <c r="F85">
-        <v>-0.1556483473315045</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.1025421298403515</v>
+      </c>
+      <c r="G85">
+        <v>-0.1057422886145003</v>
+      </c>
+      <c r="H85">
+        <v>-0.07962391750834739</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.01168334734923725</v>
+        <v>0.01413438188821205</v>
       </c>
       <c r="C86">
-        <v>2.772487035682252e-05</v>
+        <v>0.0223346015379158</v>
       </c>
       <c r="D86">
-        <v>-0.07884936597791954</v>
+        <v>0.03297570546869788</v>
       </c>
       <c r="E86">
-        <v>-0.002362136336153738</v>
+        <v>0.006893685348255014</v>
       </c>
       <c r="F86">
-        <v>0.04914451832623158</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>-0.02153269441261712</v>
+      </c>
+      <c r="G86">
+        <v>0.03306940539202729</v>
+      </c>
+      <c r="H86">
+        <v>0.07687388346076122</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.03375113590158794</v>
+        <v>0.01307674852201827</v>
       </c>
       <c r="C87">
-        <v>0.02103416482379195</v>
+        <v>0.02531840756380316</v>
       </c>
       <c r="D87">
-        <v>-0.0421389909917777</v>
+        <v>0.0377992716429633</v>
       </c>
       <c r="E87">
-        <v>-0.005102463474231057</v>
+        <v>-0.001568345981484448</v>
       </c>
       <c r="F87">
-        <v>0.1057194959787958</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>-0.01375906196561976</v>
+      </c>
+      <c r="G87">
+        <v>0.06947338798295916</v>
+      </c>
+      <c r="H87">
+        <v>0.07939025409592823</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.02223072893896734</v>
+        <v>0.04193507973031644</v>
       </c>
       <c r="C88">
-        <v>-0.000849513531654643</v>
+        <v>0.002527378515082762</v>
       </c>
       <c r="D88">
-        <v>0.003115089176062437</v>
+        <v>0.02678610182188738</v>
       </c>
       <c r="E88">
-        <v>-0.01720812393992126</v>
+        <v>0.02120413632184739</v>
       </c>
       <c r="F88">
-        <v>-0.01881024795658628</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>0.0164746622613175</v>
+      </c>
+      <c r="G88">
+        <v>-0.00325263659860192</v>
+      </c>
+      <c r="H88">
+        <v>0.008897098260111789</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.0978120480566963</v>
+        <v>0.311159128985784</v>
       </c>
       <c r="C89">
-        <v>0.05242578385495732</v>
+        <v>-0.1794197780145177</v>
       </c>
       <c r="D89">
-        <v>0.3380414037537419</v>
+        <v>-0.2394429666525588</v>
       </c>
       <c r="E89">
-        <v>0.06674679705774784</v>
+        <v>-0.008869324137388243</v>
       </c>
       <c r="F89">
-        <v>0.1032953034117679</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>-0.01672634592247938</v>
+      </c>
+      <c r="G89">
+        <v>-0.02110804431319753</v>
+      </c>
+      <c r="H89">
+        <v>-0.01142945055121684</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.08492778016270588</v>
+        <v>0.2583212248313762</v>
       </c>
       <c r="C90">
-        <v>0.02034356277169544</v>
+        <v>-0.1660322110263706</v>
       </c>
       <c r="D90">
-        <v>0.358758991014546</v>
+        <v>-0.2212168501085908</v>
       </c>
       <c r="E90">
-        <v>0.08446295351688299</v>
+        <v>-0.001334645729046889</v>
       </c>
       <c r="F90">
-        <v>0.0546473608499432</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>-0.05535597378975837</v>
+      </c>
+      <c r="G90">
+        <v>-0.005426697495503197</v>
+      </c>
+      <c r="H90">
+        <v>-0.06035997808290942</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.2454575349805276</v>
+        <v>0.1985562613518908</v>
       </c>
       <c r="C91">
-        <v>0.1923080853135175</v>
+        <v>0.1702594730935078</v>
       </c>
       <c r="D91">
-        <v>-0.02121840240198097</v>
+        <v>0.1181187776478374</v>
       </c>
       <c r="E91">
-        <v>-0.1160333606224423</v>
+        <v>-0.003116673120433319</v>
       </c>
       <c r="F91">
-        <v>-0.2423723956682212</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>0.0884055678377804</v>
+      </c>
+      <c r="G91">
+        <v>-0.09911333426331496</v>
+      </c>
+      <c r="H91">
+        <v>-0.1655697469847791</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1544695837554018</v>
+        <v>0.2790415766009685</v>
       </c>
       <c r="C92">
-        <v>0.08117373690536558</v>
+        <v>-0.06567029658946405</v>
       </c>
       <c r="D92">
-        <v>0.4252579652870731</v>
+        <v>-0.1796285700335133</v>
       </c>
       <c r="E92">
-        <v>-0.06380106554454694</v>
+        <v>0.005265846593534051</v>
       </c>
       <c r="F92">
-        <v>-0.05440557775689277</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>-0.006712756564877762</v>
+      </c>
+      <c r="G92">
+        <v>0.03710276891613001</v>
+      </c>
+      <c r="H92">
+        <v>-0.1596892311361351</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.08618630912367127</v>
+        <v>0.2903820333396143</v>
       </c>
       <c r="C93">
-        <v>0.06525904787082178</v>
+        <v>-0.1573551945412208</v>
       </c>
       <c r="D93">
-        <v>0.4229641074573484</v>
+        <v>-0.2265242001839891</v>
       </c>
       <c r="E93">
-        <v>0.1264471589417452</v>
+        <v>-0.03386447503767193</v>
       </c>
       <c r="F93">
-        <v>0.0623248111849793</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>-0.05282936826195294</v>
+      </c>
+      <c r="G93">
+        <v>-0.01635292295488599</v>
+      </c>
+      <c r="H93">
+        <v>0.0005839847918291322</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.2412213570250822</v>
+        <v>0.245082572027285</v>
       </c>
       <c r="C94">
-        <v>0.2006400436387709</v>
+        <v>0.1836154993715837</v>
       </c>
       <c r="D94">
-        <v>-0.01532525829415845</v>
+        <v>0.1436682348978629</v>
       </c>
       <c r="E94">
-        <v>-0.2297179595935028</v>
+        <v>-0.008904271701949041</v>
       </c>
       <c r="F94">
-        <v>-0.198438819126113</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.22387143204996</v>
+      </c>
+      <c r="G94">
+        <v>-0.1654330992594045</v>
+      </c>
+      <c r="H94">
+        <v>-0.3935022975595277</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.01266382987893143</v>
+        <v>0.03163641681542258</v>
       </c>
       <c r="C95">
-        <v>0.0874361368217311</v>
+        <v>0.07131725601406314</v>
       </c>
       <c r="D95">
-        <v>-0.04170579884909181</v>
+        <v>0.06128492155878369</v>
       </c>
       <c r="E95">
-        <v>-0.0169579349932669</v>
+        <v>-0.08142660123509037</v>
       </c>
       <c r="F95">
-        <v>0.0142914592362507</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>-0.02093590600180642</v>
+      </c>
+      <c r="G95">
+        <v>0.03638545491696352</v>
+      </c>
+      <c r="H95">
+        <v>0.03342888056836758</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1319355714145261</v>
+        <v>0.1854050865789932</v>
       </c>
       <c r="C98">
-        <v>0.1232390395617898</v>
+        <v>0.0679485763718644</v>
       </c>
       <c r="D98">
-        <v>0.02104912634598067</v>
+        <v>0.01886701372261674</v>
       </c>
       <c r="E98">
-        <v>0.044359012801237</v>
+        <v>-0.06482045758505732</v>
       </c>
       <c r="F98">
-        <v>0.1713081345480659</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>0.008739864313019033</v>
+      </c>
+      <c r="G98">
+        <v>0.06540821937212898</v>
+      </c>
+      <c r="H98">
+        <v>0.328648920872802</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.01227494691412509</v>
+        <v>0.009863448602630949</v>
       </c>
       <c r="C101">
-        <v>-0.0005374489984891454</v>
+        <v>0.01000130012392266</v>
       </c>
       <c r="D101">
-        <v>-0.0618183649074906</v>
+        <v>0.01849594826907065</v>
       </c>
       <c r="E101">
-        <v>-0.02958137676746248</v>
+        <v>-0.0009412660183482806</v>
       </c>
       <c r="F101">
-        <v>0.167452417963309</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>-0.01546541882956155</v>
+      </c>
+      <c r="G101">
+        <v>0.09387646060370552</v>
+      </c>
+      <c r="H101">
+        <v>-0.01042593715365267</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.09710659849527521</v>
+        <v>0.09439013377794006</v>
       </c>
       <c r="C102">
-        <v>0.06350604590738824</v>
+        <v>0.07563697476320223</v>
       </c>
       <c r="D102">
-        <v>-0.01445498112654651</v>
+        <v>0.06844065536978694</v>
       </c>
       <c r="E102">
-        <v>-0.07104077715714129</v>
+        <v>0.00813979342235999</v>
       </c>
       <c r="F102">
-        <v>-0.09372512093595171</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>0.05591254296981885</v>
+      </c>
+      <c r="G102">
+        <v>-0.04871176768203268</v>
+      </c>
+      <c r="H102">
+        <v>-0.06141939452624756</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>0.04388725715218322</v>
+        <v>0.01229700403871366</v>
       </c>
       <c r="C103">
-        <v>0.01442225857186913</v>
+        <v>0.01403230500203184</v>
       </c>
       <c r="D103">
-        <v>-0.02127925913149815</v>
+        <v>0.0127381710274211</v>
       </c>
       <c r="E103">
-        <v>-0.03675246522420832</v>
+        <v>0.01321639899642537</v>
       </c>
       <c r="F103">
-        <v>-0.01056921455111513</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>0.001782123821514399</v>
+      </c>
+      <c r="G103">
+        <v>0.005617605388671322</v>
+      </c>
+      <c r="H103">
+        <v>-0.01543932305697238</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.1217554964564509</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>-0.7409584584548935</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.6383629556584702</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.02958691291696566</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.1224112591632164</v>
+      </c>
+      <c r="G104">
+        <v>0.03123614584822322</v>
+      </c>
+      <c r="H104">
+        <v>-0.05243995220287696</v>
       </c>
     </row>
   </sheetData>
